--- a/dados/Significados.xlsx
+++ b/dados/Significados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8f22b384b90a890/DataScience/8.Projetos/Judiciario Exponencial 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8f22b384b90a890/DataScience/8.Projetos/Hacka_JudExponencial_2020/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17E4071F-F61F-4111-B553-EF41B9DC3173}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{372FCB4B-1CAE-4B71-9162-0D80C874AE48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78460B99-CCAC-420A-9403-997DF9132CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>TERMO</t>
   </si>
@@ -42,83 +42,95 @@
     <t>SIGNIFICADO</t>
   </si>
   <si>
-    <t xml:space="preserve">autora </t>
-  </si>
-  <si>
     <t xml:space="preserve"> PARTE</t>
   </si>
   <si>
-    <t xml:space="preserve">desembargador(a) federal </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CARGO</t>
   </si>
   <si>
-    <t xml:space="preserve">juiz(a) federal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">desembargador federal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mandado de seguranca </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TERMO.JURIDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">impetrado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">agencia da previdencia social </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ORGAO.PUBLICO</t>
   </si>
   <si>
-    <t xml:space="preserve">provimento jurisdicional </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acao de seguranca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">autos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">autarquia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">parte impetrante </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cf/88. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> CONSTITUICAO.FEDERAL</t>
   </si>
   <si>
-    <t xml:space="preserve">lei 9.784/99 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> LEI.ORDINARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">competencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mora administrativa </t>
-  </si>
-  <si>
     <t>TAG</t>
+  </si>
+  <si>
+    <t>este</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>autora</t>
+  </si>
+  <si>
+    <t>desembargador(a) federal</t>
+  </si>
+  <si>
+    <t>juiz(a) federal</t>
+  </si>
+  <si>
+    <t>desembargador federal</t>
+  </si>
+  <si>
+    <t>mandado de seguranca</t>
+  </si>
+  <si>
+    <t>impetrado</t>
+  </si>
+  <si>
+    <t>agencia da previdencia social</t>
+  </si>
+  <si>
+    <t>provimento jurisdicional</t>
+  </si>
+  <si>
+    <t>acao de seguranca</t>
+  </si>
+  <si>
+    <t>inss</t>
+  </si>
+  <si>
+    <t>autos</t>
+  </si>
+  <si>
+    <t>autarquia</t>
+  </si>
+  <si>
+    <t>parte impetrante</t>
+  </si>
+  <si>
+    <t>cf/88.</t>
+  </si>
+  <si>
+    <t>lei 9.784/99</t>
+  </si>
+  <si>
+    <t>competencia</t>
+  </si>
+  <si>
+    <t>mora administrativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +142,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +495,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -497,138 +518,151 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/dados/Significados.xlsx
+++ b/dados/Significados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8f22b384b90a890/DataScience/8.Projetos/Hacka_JudExponencial_2020/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{372FCB4B-1CAE-4B71-9162-0D80C874AE48}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B5CFD45-4185-4CD2-90F3-2BBA580BB186}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78460B99-CCAC-420A-9403-997DF9132CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>TERMO</t>
   </si>
@@ -42,39 +42,9 @@
     <t>SIGNIFICADO</t>
   </si>
   <si>
-    <t xml:space="preserve"> PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TERMO.JURIDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORGAO.PUBLICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CONSTITUICAO.FEDERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEI.ORDINARIA</t>
-  </si>
-  <si>
     <t>TAG</t>
   </si>
   <si>
-    <t>este</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>autora</t>
   </si>
   <si>
@@ -124,13 +94,118 @@
   </si>
   <si>
     <t>mora administrativa</t>
+  </si>
+  <si>
+    <t>PARTE</t>
+  </si>
+  <si>
+    <t>CARGO</t>
+  </si>
+  <si>
+    <t>TERMO.JURIDICO</t>
+  </si>
+  <si>
+    <t>ORGAO.PUBLICO</t>
+  </si>
+  <si>
+    <t>CONSTITUICAO.FEDERAL</t>
+  </si>
+  <si>
+    <t>LEI.ORDINARIA</t>
+  </si>
+  <si>
+    <t>relator</t>
+  </si>
+  <si>
+    <t>8a vara federal</t>
+  </si>
+  <si>
+    <t>sem resolucao do merito</t>
+  </si>
+  <si>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>sucumbenciais</t>
+  </si>
+  <si>
+    <t>principio da causalidade</t>
+  </si>
+  <si>
+    <t>partes litigantes</t>
+  </si>
+  <si>
+    <t>custas processuais</t>
+  </si>
+  <si>
+    <t>sucumbencia</t>
+  </si>
+  <si>
+    <t>stj</t>
+  </si>
+  <si>
+    <t>ministro</t>
+  </si>
+  <si>
+    <t>quarta turma</t>
+  </si>
+  <si>
+    <t>deferimento do pedido</t>
+  </si>
+  <si>
+    <t>antecipacao de tutela</t>
+  </si>
+  <si>
+    <t>tutela de urgencia</t>
+  </si>
+  <si>
+    <t>deferimento</t>
+  </si>
+  <si>
+    <t>tutela antecipada</t>
+  </si>
+  <si>
+    <t>parte autora</t>
+  </si>
+  <si>
+    <t>reus</t>
+  </si>
+  <si>
+    <t>trf5</t>
+  </si>
+  <si>
+    <t>segunda turma</t>
+  </si>
+  <si>
+    <t>sumula 421</t>
+  </si>
+  <si>
+    <t>RESOLUCAO</t>
+  </si>
+  <si>
+    <t>demandante</t>
+  </si>
+  <si>
+    <t>stf</t>
+  </si>
+  <si>
+    <t>jurisprudencia</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,17 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +249,11 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,177 +568,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FD322-3BEB-43B4-A09A-1A01BA1653EC}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/dados/Significados.xlsx
+++ b/dados/Significados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8f22b384b90a890/DataScience/8.Projetos/Hacka_JudExponencial_2020/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B5CFD45-4185-4CD2-90F3-2BBA580BB186}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{8039EB1D-256A-455A-A42D-FE9C1C766090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BCFA0ED-E293-45BF-B9D8-2BA4EBCE0B1F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{78460B99-CCAC-420A-9403-997DF9132CA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TERMO</t>
   </si>
@@ -195,17 +195,128 @@
     <t>jurisprudencia</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>Pessoa que entrou com um processo</t>
+  </si>
+  <si>
+    <t>Juiz federal de segunda instância (tribunal)</t>
+  </si>
+  <si>
+    <t>Juiz federal de primeira instância (varas)</t>
+  </si>
+  <si>
+    <t>Medida que tem como objetivo a proteção de um direito</t>
+  </si>
+  <si>
+    <t>Pessoa que está respondendo à medida judicial</t>
+  </si>
+  <si>
+    <t>Agência do INSS</t>
+  </si>
+  <si>
+    <t>Aceitação de um recurso</t>
+  </si>
+  <si>
+    <t>Instituto Nacional do Seguro Social</t>
+  </si>
+  <si>
+    <t>É o conjunto de documentos que servem como evidências e provas em um processo judicial.</t>
+  </si>
+  <si>
+    <t>Serviço autônomo, criado por lei, para exercer atividades da Administração Pública. Ex: Banco Central, INSS.</t>
+  </si>
+  <si>
+    <t>A pessoa que está solicitando uma medida judicial (habeas corpus, mandado de segurança etc.)</t>
+  </si>
+  <si>
+    <t>Constituição Federal de 1988</t>
+  </si>
+  <si>
+    <t>Lei de procedimento administrativo</t>
+  </si>
+  <si>
+    <t>Determina os limites do poder de julgar. Ex: Causas trabalhistas são de competência da Justiça do Trabalho, por isso só podem ser julgadas por um Juiz do Trabalho. Juízes de vara cível, por exemplo, não têm competência para julgar uma ação desse tipo</t>
+  </si>
+  <si>
+    <t>Quando o Poder Público não cumpre uma ação que deveria ter cumprido no prazo devido</t>
+  </si>
+  <si>
+    <t>Juiz que analisa, vota e resume um processo antes de apresentá-lo à votação dos demais juízes em um tribunal</t>
+  </si>
+  <si>
+    <t>Ação encerrada sem que o juiz avalie a argumentação da parte. Acontece quando há erro na forma.</t>
+  </si>
+  <si>
+    <t>Código Processual Civil</t>
+  </si>
+  <si>
+    <t>Relativo a sucumbência (rejeição de um pedido pelo juiz)</t>
+  </si>
+  <si>
+    <t>Princípio do Direito que determina que quem entra com algum pedido na Justiça deve arcar com as despesas desse pedido</t>
+  </si>
+  <si>
+    <t>Pessoas que estão em polos opostos de uma disputa judicial</t>
+  </si>
+  <si>
+    <t>taxa cobrada para poder utilizar os serviços do Judiciário</t>
+  </si>
+  <si>
+    <t>Rejeição de um pedido pelo juiz</t>
+  </si>
+  <si>
+    <t>Superior Tribunal de Justiça</t>
+  </si>
+  <si>
+    <t>Juízes integrantes das instâncias superiores (STJ, STF etc)</t>
+  </si>
+  <si>
+    <t>Aceitação do pedido</t>
+  </si>
+  <si>
+    <t>Aprovação</t>
+  </si>
+  <si>
+    <t>Pessoa acusada de cometer um crime</t>
+  </si>
+  <si>
+    <t>Tribunal Regional Federal, Quinta região</t>
+  </si>
+  <si>
+    <t>Parte que move uma ação judicial contra outra pessoa (autor)</t>
+  </si>
+  <si>
+    <t>Supremo Tribunal Federal</t>
+  </si>
+  <si>
+    <t>Conjunto de decisões e interpretações anteriores tomadas pelo judiciário e que servem como referência para novas decisões</t>
+  </si>
+  <si>
+    <t>Os honorários advocatícios não são devidos à Defensoria Pública quando ela atua contra a pessoa jurídica de direito público à qual pertença. Referências: CF/1988, art. 134. CC/2002, art. 381. Precedentes: AgRg no REsp 755.631-MG (1ª T, 10.06.2008 - DJe 25.06.2008)</t>
+  </si>
+  <si>
+    <t>Órgão colegiado do TRF5</t>
+  </si>
+  <si>
+    <t>Tutela antecipada é o ato do juiz, por meio de decisão interlocutória, que adianta ao postulante, total ou parcialmente, os efeitos do julgamento de mérito, quer em primeira instância, quer em sede de recurso.</t>
+  </si>
+  <si>
+    <t>Tutela de urgência é gênero que compreende duas espécies: Antecipação de Tutela e medida cautelar. A característica principal é a provisoriedade: a decisão é tomada de plano para evitar danos graves e de difícil reparação. A tutela cautelar exige apenas, em cognição sumária, a prova de dano grave e de difícil reparação e a plausibilidade das alegações.</t>
+  </si>
+  <si>
+    <t>A antecipação da tutela, consiste na antecipação dos efeitos da sentença condenatória. É usada quando há algum requerimento da parte que não pode esperar a execução de sentença, devendo a justiça proporcionar ao titular do direito lesado a possibilidade de cumprimento com urgência de determinada decisão judicial.</t>
+  </si>
+  <si>
+    <t>Órgão julgador colegiado do TRF5</t>
+  </si>
+  <si>
+    <t>Órgão julgador do TRF5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +332,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,13 +363,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FD322-3BEB-43B4-A09A-1A01BA1653EC}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,70 +718,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -665,8 +791,8 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -676,8 +802,8 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>54</v>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -687,19 +813,17 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>54</v>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -709,8 +833,8 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -720,8 +844,8 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -731,8 +855,8 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>53</v>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
@@ -742,19 +866,19 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>53</v>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -764,8 +888,8 @@
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -775,8 +899,8 @@
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -786,8 +910,8 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -797,8 +921,8 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>53</v>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -808,8 +932,8 @@
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>54</v>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -819,30 +943,30 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -852,74 +976,74 @@
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
+      <c r="C31" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -929,30 +1053,30 @@
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="141" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C34" t="s">
-        <v>53</v>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -962,52 +1086,52 @@
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" t="s">
-        <v>54</v>
+      <c r="C39" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1017,30 +1141,30 @@
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C42" t="s">
-        <v>53</v>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1050,8 +1174,8 @@
       <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C43" t="s">
-        <v>54</v>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1061,8 +1185,8 @@
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C44" t="s">
-        <v>53</v>
+      <c r="C44" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
